--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC2.3_TC2.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2314808735537284</v>
+        <v>0.2402836904551368</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.23148087355372837, 'ngram_match_score': 0.12158891586406263, 'weighted_ngram_match_score': 0.1318482716215864, 'syntax_match_score': 0.5034722222222222, 'dataflow_match_score': 0.16901408450704225}</t>
+          <t>{'codebleu': 0.2402836904551368, 'ngram_match_score': 0.12158891586406263, 'weighted_ngram_match_score': 0.1318482716215864, 'syntax_match_score': 0.5034722222222222, 'dataflow_match_score': 0.20422535211267606}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
